--- a/factor analysis results/mr_63.xlsx
+++ b/factor analysis results/mr_63.xlsx
@@ -451,34 +451,34 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.007317044617727573</v>
+        <v>0.01092643797059644</v>
       </c>
       <c r="C4">
-        <v>0.00462457634385521</v>
+        <v>0.00768009177303335</v>
       </c>
       <c r="D4">
-        <v>0.002652953349509938</v>
+        <v>0.005844478323908841</v>
       </c>
       <c r="E4">
-        <v>0.003444742177207825</v>
+        <v>0.006030128534993622</v>
       </c>
       <c r="F4">
-        <v>0.004063974246147625</v>
+        <v>0.006905685825486803</v>
       </c>
       <c r="G4">
-        <v>0.00556077636144875</v>
+        <v>0.01176092851427325</v>
       </c>
       <c r="H4">
-        <v>0.002072934618386069</v>
+        <v>0.01086156573846346</v>
       </c>
       <c r="I4">
-        <v>0.001833926548134184</v>
+        <v>0.01007836969795038</v>
       </c>
       <c r="J4">
-        <v>-8.086850400860381e-06</v>
+        <v>0.008285920004547089</v>
       </c>
       <c r="K4">
-        <v>0.001916069644605613</v>
+        <v>0.01137768972559115</v>
       </c>
     </row>
   </sheetData>

--- a/factor analysis results/mr_63.xlsx
+++ b/factor analysis results/mr_63.xlsx
@@ -386,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,16 +402,14 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -428,63 +426,51 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
         <v>3</v>
       </c>
-      <c r="K2" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.01092643797059644</v>
+        <v>0.009646238452532568</v>
       </c>
       <c r="C4">
-        <v>0.00768009177303335</v>
+        <v>0.006872383148491487</v>
       </c>
       <c r="D4">
-        <v>0.005844478323908841</v>
+        <v>0.006629067200009679</v>
       </c>
       <c r="E4">
-        <v>0.006030128534993622</v>
+        <v>0.007482132067259702</v>
       </c>
       <c r="F4">
-        <v>0.006905685825486803</v>
+        <v>0.01275065919260197</v>
       </c>
       <c r="G4">
-        <v>0.01176092851427325</v>
+        <v>0.01340600752495773</v>
       </c>
       <c r="H4">
-        <v>0.01086156573846346</v>
+        <v>0.01024068003723424</v>
       </c>
       <c r="I4">
-        <v>0.01007836969795038</v>
-      </c>
-      <c r="J4">
-        <v>0.008285920004547089</v>
-      </c>
-      <c r="K4">
-        <v>0.01137768972559115</v>
+        <v>0.01102338634098289</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
